--- a/medicine/Enfance/Les_Ailes_d'Alexanne/Les_Ailes_d'Alexanne.xlsx
+++ b/medicine/Enfance/Les_Ailes_d'Alexanne/Les_Ailes_d'Alexanne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Ailes_d%27Alexanne</t>
+          <t>Les_Ailes_d'Alexanne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Ailes d'Alexanne est un cycle de fantasy écrit par Anne Robillard. Cette série compte actuellement dix tomes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Ailes_d%27Alexanne</t>
+          <t>Les_Ailes_d'Alexanne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Tomes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>4 h 44, Guy Saint-Jean, 2010, 312 p.  (ISBN 978-2-89455-350-3)Réédité aux éditions Michel Lafon en 2011, 365 p.  (ISBN 978-2-7499-1447-3), puis par les mêmes éditions au format poche en 2014, 388 p.  (ISBN 979-10-224-0035-0)
 Mikal, Guy Saint-Jean, 2010, 319 p.  (ISBN 978-2-89455-364-0)Réédité aux éditions Michel Lafon en 2012, 352 p.  (ISBN 978-2-7499-1573-9), puis par les mêmes éditions au format poche en 2014, 391 p.  (ISBN 979-10-224-0066-4)
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Ailes_d%27Alexanne</t>
+          <t>Les_Ailes_d'Alexanne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,67 +567,389 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 h 44
-Alexanne Kalinovsky est devenue orpheline à la suite du décès de ses parents. Les services sociaux l'envoient vivre chez sa tante paternelle, Tatiana Kalinovsky, qu'elle n'a jamais vue. Là-bas, sa tante lui apprend qu'elle est la descendante d'une lignée de fées russes qui ont le pouvoir de guérison. Alexanne apprend de sa tante tout ce qu'elle doit savoir. Mais des événements viendront compromettre leur petit train de vie avec l'arrivée d'Alexei Kalinovsky, l'oncle d'Alexanne.
-Mikal
-Alexanne est bien décidée à aider son oncle Mikal à se reconstruire après des années de mauvais traitements dans la secte de la montagne. Persuadée qu’un amour pur et sincère viendra à bout de ses blessures, elle l’engage à retrouver son âme sœur… Mais pour y parvenir, le jeune homme devra affronter le Jaguar, maître démoniaque de la secte. Alexanne n’est pas consciente du danger vers lequel elle a poussé Mikal car ses pouvoirs sont capables de le sauver, comme de le détruire…
-Le Faucheur
-Alors qu'ils viennent de détruire la secte de la montagne, les Kalinovsky doivent affronter la colère du Faucheur. Le fils du Jaguar, déterminé à venger la chute de son maître, traque sans relâche Alexei et ses proches.
+          <t>4 h 44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexanne Kalinovsky est devenue orpheline à la suite du décès de ses parents. Les services sociaux l'envoient vivre chez sa tante paternelle, Tatiana Kalinovsky, qu'elle n'a jamais vue. Là-bas, sa tante lui apprend qu'elle est la descendante d'une lignée de fées russes qui ont le pouvoir de guérison. Alexanne apprend de sa tante tout ce qu'elle doit savoir. Mais des événements viendront compromettre leur petit train de vie avec l'arrivée d'Alexei Kalinovsky, l'oncle d'Alexanne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Les_Ailes_d'Alexanne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Ailes_d%27Alexanne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mikal</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexanne est bien décidée à aider son oncle Mikal à se reconstruire après des années de mauvais traitements dans la secte de la montagne. Persuadée qu’un amour pur et sincère viendra à bout de ses blessures, elle l’engage à retrouver son âme sœur… Mais pour y parvenir, le jeune homme devra affronter le Jaguar, maître démoniaque de la secte. Alexanne n’est pas consciente du danger vers lequel elle a poussé Mikal car ses pouvoirs sont capables de le sauver, comme de le détruire…
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Ailes_d'Alexanne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Ailes_d%27Alexanne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le Faucheur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors qu'ils viennent de détruire la secte de la montagne, les Kalinovsky doivent affronter la colère du Faucheur. Le fils du Jaguar, déterminé à venger la chute de son maître, traque sans relâche Alexei et ses proches.
 Uni dans cet ultime combat, le clan Kalinovsky fait frond, Alexanne en tête. La jeune fée, qui n'hésite pas à se mettre en danger pour sauver son oncle, se jette au cœur de la bataille.
 Armée de ses nouveaux pouvoir, saura-t-elle faire face à ce que le destin lui réserve?
-Sara-Anne
-Sara-Anne, une amérindienne aux capacités hors du commun, confie à Alexanne une pierre noire très ancienne qui prédirait l'avenir et d'où elle dit entendre des voix . Alors que cette adolescente cherche à percer son mystère, sa conquête la mène jusqu'à Montréal où un attentat se produit dès son arrivée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Ailes_d'Alexanne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Ailes_d%27Alexanne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sara-Anne</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sara-Anne, une amérindienne aux capacités hors du commun, confie à Alexanne une pierre noire très ancienne qui prédirait l'avenir et d'où elle dit entendre des voix . Alors que cette adolescente cherche à percer son mystère, sa conquête la mène jusqu'à Montréal où un attentat se produit dès son arrivée.
 Coïncidence? Ce drame aurait-il pu être évité grâce au pouvoir de la pierre ?
 Seul un groupe de gens aux facultés surnaturelles pourra contrer les terribles plans des terroristes à l'aide de cet objet divinatoire...
-Spirales
-Dans plusieurs champs de blé dans le monde entier sont apparus de mystérieux agroglyphes. Mais qu'est ce que cela veut bien dire ? Et pourquoi un mystérieux chaman apparait-il à Sara-Anne ?
-Sirènes
-Dans cette sixième aventure, Alexanne et Sara-Anne se rendront aux Bahamas pour rencontrer un mystérieux bienfaiteur qui veut absolument rencontrer la petite ... Qui est-il vraiment et que veut-il à Sara-Anne? Durant leur voyage ils rencontreront à bord du Rédemption une petite troupe d'archéologues à la recherche des ruines du royaume d'Atlantide. Jusqu'où les mènera cette nouvelle aventure sous les tropiques ?
-James
-Rien ne va plus sur la Terre. Le chaos règne et une maladie mystérieuse frappe massivement la population. Malheureusement, il n’existe pas encore de vaccin pour l’enrayer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Ailes_d'Alexanne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Ailes_d%27Alexanne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spirales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans plusieurs champs de blé dans le monde entier sont apparus de mystérieux agroglyphes. Mais qu'est ce que cela veut bien dire ? Et pourquoi un mystérieux chaman apparait-il à Sara-Anne ?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Ailes_d'Alexanne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Ailes_d%27Alexanne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sirènes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans cette sixième aventure, Alexanne et Sara-Anne se rendront aux Bahamas pour rencontrer un mystérieux bienfaiteur qui veut absolument rencontrer la petite ... Qui est-il vraiment et que veut-il à Sara-Anne? Durant leur voyage ils rencontreront à bord du Rédemption une petite troupe d'archéologues à la recherche des ruines du royaume d'Atlantide. Jusqu'où les mènera cette nouvelle aventure sous les tropiques ?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Ailes_d'Alexanne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Ailes_d%27Alexanne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rien ne va plus sur la Terre. Le chaos règne et une maladie mystérieuse frappe massivement la population. Malheureusement, il n’existe pas encore de vaccin pour l’enrayer.
 Il n’en faut pas plus pour que l’équipe de la loge Adhara, dont fait partie Alexanne, se mobilise pour tenter d’identifier la source de cette étrange épidémie qui dépasse l’état des connaissances médicales actuelles et qui pourrait bien être d’origine… extraterrestre.
 Comme la maladie semble issue du mythique Triangle des Bermudes, un détachement de l’équipe doit se rendre sur place de toute urgence pour découvrir comment se transmet le fléau. L’enjeu? La survie de la race humaine!
-Alba
-Qui dirigera l’Étoile désormais ? demande Ptolémée .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Les_Ailes_d'Alexanne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Ailes_d%27Alexanne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Alba</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Qui dirigera l’Étoile désormais ? demande Ptolémée .
 ̶ Ce sera moi, les informa Ramsès. Je suis le premier de nous quatre à avoir été recruté par Darius .
 ̶ Nous devons être cinq pour diriger le monde .
 ̶ J’ai déjà quelqu’un en tête .
 Malgré les succès obtenus aux Bermudes et la récupération du laser qui était à l’origine d’une grave maladie sur Terre, Alexanne et l’équipe de la loge Adhara ne connaissent pas de répit. Un messager les informe que James se retrouve en très fâcheuse posture dans le cadre d’une mission secrète sur les bords du Loch Ness, en Écosse.
 C’est que le temps presse pour l’humanité alors que les membres du gouvernement invisible le plus redoutable s’apprêtent à se choisir un nouveau dirigeant afin de poursuivre son œuvre destructrice. Christian, Sachiko et Alexanne arriveront-ils à temps pour contrecarrer les plans de ce pouvoir occulte ?
-Éire
-Désormais majeure et maîtrisant de plus en plus ses pouvoirs de fée, Alexanne songe à épouser Matthieu et à commencer sa vie d’adulte, sans oublier que sa mission est de combattre le Mal partout sur la Terre. Entretemps, les visions de Christian deviennent plus claires de jour en jour… Avec l’aide de Matthieu, il découvre que son château hanté se situe en Irlande. Au moment de rencontrer Niamh, la seule survivante de sa famille éliminée par un sorcier, il décide enfin de se porter à son secours même si Lyette, la chef de la loge, tente de l’en dissuader. Mais Christian ne partira pas seul…
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Les_Ailes_d'Alexanne</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Ailes_d%27Alexanne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Éire</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Désormais majeure et maîtrisant de plus en plus ses pouvoirs de fée, Alexanne songe à épouser Matthieu et à commencer sa vie d’adulte, sans oublier que sa mission est de combattre le Mal partout sur la Terre. Entretemps, les visions de Christian deviennent plus claires de jour en jour… Avec l’aide de Matthieu, il découvre que son château hanté se situe en Irlande. Au moment de rencontrer Niamh, la seule survivante de sa famille éliminée par un sorcier, il décide enfin de se porter à son secours même si Lyette, la chef de la loge, tente de l’en dissuader. Mais Christian ne partira pas seul…
 Une épopée grandiose située dans le village de Saint-Juillet, où les signes de la fin du monde se multiplient.
-Marie
-Tandis que la loge Adhara poursuit son travail acharné contre les machinations du Mal et purifie les cours d'eau de la planète, un inexplicable accident survient, plongeant Marie dans le coma. À son réveil, le village de Saint-Juillet devient la cible de très dangereuses créatures, qui réussissent à capturer la jeune femme, tentant de l'empêcher d'accomplir son destin. Alexanne et ses coéquipiers arriveront-ils à temps pour la sauver de ces démons ?
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Les_Ailes_d%27Alexanne</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Ailes_d%27Alexanne</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Les_Ailes_d'Alexanne</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Ailes_d%27Alexanne</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Marie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tandis que la loge Adhara poursuit son travail acharné contre les machinations du Mal et purifie les cours d'eau de la planète, un inexplicable accident survient, plongeant Marie dans le coma. À son réveil, le village de Saint-Juillet devient la cible de très dangereuses créatures, qui réussissent à capturer la jeune femme, tentant de l'empêcher d'accomplir son destin. Alexanne et ses coéquipiers arriveront-ils à temps pour la sauver de ces démons ?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Les_Ailes_d'Alexanne</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Ailes_d%27Alexanne</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Alexanne Kalinovsky : Alexanne est une jeune fille de 16 ans qui vivait à Montréal. Après la mort accidentelle de ses parents, elle est partie vivre chez sa tante Tatiana dans les Laurentides ; celle-ci habite dans un manoir, sur une montagne en pleine forêt. Alexanne découvre ensuite de nombreux secrets de familles que son père lui a caché à cause de la mort prématurée de sa sœur jumelle, Anne (avant le décès d'Anne, elle s'appelait Alexandra. Ses parents, en hommage à la fillette décédée, on fait une fusion du prénom Anne et de celui Alexandra, donnant Alexanne). Grâce à sa tante, elle découvre qu'elle possède certains pouvoirs comme « la double-vue » qui font d'elle une fée de la longue lignée des Ivanova. Elle est aussi l'âme jumelle d'Alexei et l'âme sœur de Matthieu, son amoureux. À la fin du tome 3, elle devient un Vengeur grâce à Valéri. C'est grâce à lui qu'elle "enflamme" le Faucheur Fréderic Desjardin, Narciziu et le psychiatre Lee Edelman.
 Tatiana Kalinovsky : Tante d'Alexanne, elle est également fée, elle lui enseigne donc tout ce qu'elle sait sur cet art. Elle a guéri beaucoup de gens avec ses pouvoirs. Elle en possède cependant bien moins qu'Alexanne et Alexei, son frère, décrit dans le paragraphe suivant. Protectrice, elle refuse de mettre la petite Sara-Anne Wakanda (décrite dans le 4ème paragraphe) en danger lorsque cette dernière se voit contrainte de prendre l'avion pour rencontrer un malfaiteur se cachant sous le nom de Boyens. Elle protège toujours sa famille. Malgré tout, elle reste avant tout une fée guérisseuse.
